--- a/input_data/Корреляция.xlsx
+++ b/input_data/Корреляция.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/Integro/Задачи/Микроб. Корреляция эпидемий в регионах/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09866EC5-B7AD-5343-B46D-52127F2D6216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF99A751-391C-FD4F-AF74-C3E5478B6375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{831115EE-9B76-6B4D-BF65-E9AAF07D2B56}"/>
   </bookViews>
@@ -681,7 +681,7 @@
   <dimension ref="A1:C7226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
